--- a/mes-modules/base/src/main/resources/excel/设备数据模板.xlsx
+++ b/mes-modules/base/src/main/resources/excel/设备数据模板.xlsx
@@ -1,58 +1,416 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="12050" windowHeight="7840"/>
+  </bookViews>
   <sheets>
     <sheet name="设备数据模板" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>设备组</t>
+  </si>
+  <si>
+    <t>设备编码</t>
+  </si>
+  <si>
+    <t>设备名称</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>类型（设备组，设备）</t>
+  </si>
+  <si>
+    <t>制造商</t>
+  </si>
+  <si>
+    <t>入库日期</t>
+  </si>
+  <si>
+    <t>出库日期</t>
+  </si>
+  <si>
+    <t>启用状态</t>
+  </si>
+  <si>
+    <t>运行状态</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,18 +418,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,52 +1043,65 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="21.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="10.5833333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>设备组</v>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <v>设备编码</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="str">
-        <v>设备名称</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" t="str">
-        <v>型号</v>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" t="str">
-        <v>类型（设备组填1，设备填0）</v>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
-      <c r="F1" t="str">
-        <v>制造商</v>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
-      <c r="G1" t="str">
-        <v>入库日期</v>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
-      <c r="H1" t="str">
-        <v>出库日期</v>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
-      <c r="I1" t="str">
-        <v>启用状态</v>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
-      <c r="J1" t="str">
-        <v>运行状态</v>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J1"/>
+    <ignoredError sqref="A1:D1 F1:J1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/mes-modules/base/src/main/resources/excel/设备数据模板.xlsx
+++ b/mes-modules/base/src/main/resources/excel/设备数据模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12050" windowHeight="7840"/>
+    <workbookView windowWidth="19190" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="设备数据模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>设备组</t>
   </si>
@@ -28,7 +28,7 @@
     <t>型号</t>
   </si>
   <si>
-    <t>类型（设备组，设备）</t>
+    <t>类型（设备组1，设备0）</t>
   </si>
   <si>
     <t>制造商</t>
@@ -44,25 +44,126 @@
   </si>
   <si>
     <t>运行状态</t>
+  </si>
+  <si>
+    <t>关联设备人员账号(:隔开)</t>
+  </si>
+  <si>
+    <t>人员名称</t>
+  </si>
+  <si>
+    <t>派工默认</t>
+  </si>
+  <si>
+    <t>BOMCO_ZC_SKB</t>
+  </si>
+  <si>
+    <t>数控班</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>C2236</t>
+  </si>
+  <si>
+    <t>普通车床</t>
+  </si>
+  <si>
+    <t>CD6140A</t>
+  </si>
+  <si>
+    <t>大连机床厂</t>
+  </si>
+  <si>
+    <t>lisi:86118004:80000001</t>
+  </si>
+  <si>
+    <t>C60106</t>
+  </si>
+  <si>
+    <t>重型卧式车床</t>
+  </si>
+  <si>
+    <t>C61200\φ2000×5000</t>
+  </si>
+  <si>
+    <t>安阳鑫盛机床有限公司</t>
+  </si>
+  <si>
+    <t>80000007:zhaowu</t>
+  </si>
+  <si>
+    <t>13-0001</t>
+  </si>
+  <si>
+    <t>双柱立车</t>
+  </si>
+  <si>
+    <t>DVT400X25/32</t>
+  </si>
+  <si>
+    <t>齐齐哈尔第一机床 厂</t>
+  </si>
+  <si>
+    <t>CS2240</t>
+  </si>
+  <si>
+    <t>数控车床</t>
+  </si>
+  <si>
+    <t>CKW61200\φ2000×3000</t>
+  </si>
+  <si>
+    <t>天水星火机床厂</t>
+  </si>
+  <si>
+    <t>CS2244</t>
+  </si>
+  <si>
+    <t>CK61100*5000\φ1000×5000</t>
+  </si>
+  <si>
+    <t>星火机床有限公司</t>
+  </si>
+  <si>
+    <t>CS501102</t>
+  </si>
+  <si>
+    <t>数控重型卧式车床</t>
+  </si>
+  <si>
+    <t>CK61220 \φ2200×5000/32t</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="楷体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -215,6 +316,11 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -410,12 +516,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,157 +638,189 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -712,11 +865,12 @@
     <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
     <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -1049,13 +1203,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
@@ -1063,9 +1217,11 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="10.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.8333333333333" customWidth="1"/>
+    <col min="11" max="11" width="23.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,6 +1252,254 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:13">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5">
+        <v>36144.3333333333</v>
+      </c>
+      <c r="H3" s="5">
+        <v>36144.3333333333</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5">
+        <v>41108</v>
+      </c>
+      <c r="H4" s="5">
+        <v>41108</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5">
+        <v>40108</v>
+      </c>
+      <c r="H5" s="5">
+        <v>40108</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5">
+        <v>38507</v>
+      </c>
+      <c r="H6" s="5">
+        <v>38507</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="5">
+        <v>39264</v>
+      </c>
+      <c r="H7" s="5">
+        <v>39264</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5">
+        <v>40368</v>
+      </c>
+      <c r="H8" s="5">
+        <v>40368</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
